--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/MONTANA_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/MONTANA_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -488,7 +488,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C9">
@@ -514,7 +514,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C11">
@@ -571,7 +571,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -646,12 +646,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C20">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C21">
@@ -791,7 +791,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C30">
@@ -804,7 +804,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C31">
@@ -848,7 +848,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C34">
@@ -905,7 +905,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C38">
@@ -957,7 +957,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C42">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C74">
@@ -1545,41 +1545,6 @@
       </c>
       <c r="D82">
         <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/MONTANA_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/MONTANA_2019.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Valle De Zaragoza</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -631,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -662,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -675,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Ozumba</t>
@@ -688,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -701,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -732,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -745,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -758,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -802,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -815,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>General Heliodoro Castillo</t>
@@ -828,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -859,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -890,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -903,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Cuautitlán De García Barragán</t>
@@ -916,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -929,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -942,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -955,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -968,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Villa Corona</t>
@@ -981,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -994,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1025,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -1038,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Múgica</t>
@@ -1051,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -1064,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1095,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -1108,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1139,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1170,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Quimixtlán</t>
@@ -1183,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1214,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1245,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -1258,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>San Nicolás Tolentino</t>
@@ -1271,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1302,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1333,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Yécora</t>
@@ -1346,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1377,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1408,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1439,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -1452,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Mecayapan</t>
@@ -1465,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -1478,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1509,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Miguel Auza</t>
@@ -1522,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Total</t>
